--- a/Code/Results/Cases/Case_4_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011179054407701</v>
+        <v>1.036308532144776</v>
       </c>
       <c r="D2">
-        <v>1.031075517145059</v>
+        <v>1.045447246956343</v>
       </c>
       <c r="E2">
-        <v>1.019281045074758</v>
+        <v>1.039956798640218</v>
       </c>
       <c r="F2">
-        <v>1.035233998188952</v>
+        <v>1.053993632004908</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048335867695424</v>
+        <v>1.040818700314365</v>
       </c>
       <c r="J2">
-        <v>1.033030466682919</v>
+        <v>1.04141755587214</v>
       </c>
       <c r="K2">
-        <v>1.04211825309601</v>
+        <v>1.048215461422746</v>
       </c>
       <c r="L2">
-        <v>1.030478143822596</v>
+        <v>1.042740513027197</v>
       </c>
       <c r="M2">
-        <v>1.046223357250278</v>
+        <v>1.056738067710037</v>
       </c>
       <c r="N2">
-        <v>1.014790673669026</v>
+        <v>1.017742708499226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015078318710764</v>
+        <v>1.03714272496299</v>
       </c>
       <c r="D3">
-        <v>1.034051264420055</v>
+        <v>1.046110420238542</v>
       </c>
       <c r="E3">
-        <v>1.022690854342644</v>
+        <v>1.040739082067003</v>
       </c>
       <c r="F3">
-        <v>1.038710356299466</v>
+        <v>1.054787798995624</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049468936566391</v>
+        <v>1.041018470270297</v>
       </c>
       <c r="J3">
-        <v>1.035166206227421</v>
+        <v>1.041896240001939</v>
       </c>
       <c r="K3">
-        <v>1.044266230448005</v>
+        <v>1.048690463194736</v>
       </c>
       <c r="L3">
-        <v>1.033041405617511</v>
+        <v>1.043333195163638</v>
       </c>
       <c r="M3">
-        <v>1.048870777238724</v>
+        <v>1.057345438288602</v>
       </c>
       <c r="N3">
-        <v>1.015512976494292</v>
+        <v>1.017903295395854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017556193984275</v>
+        <v>1.037683207584575</v>
       </c>
       <c r="D4">
-        <v>1.035945323914466</v>
+        <v>1.046540159482722</v>
       </c>
       <c r="E4">
-        <v>1.024862987419416</v>
+        <v>1.041246306483762</v>
       </c>
       <c r="F4">
-        <v>1.040924384190663</v>
+        <v>1.055302645883748</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050181295036029</v>
+        <v>1.041146931474414</v>
       </c>
       <c r="J4">
-        <v>1.036521227931111</v>
+        <v>1.042206016512295</v>
       </c>
       <c r="K4">
-        <v>1.045628445089445</v>
+        <v>1.048997758204943</v>
       </c>
       <c r="L4">
-        <v>1.034670320396959</v>
+        <v>1.043717075810325</v>
       </c>
       <c r="M4">
-        <v>1.050552757147664</v>
+        <v>1.057738756647028</v>
       </c>
       <c r="N4">
-        <v>1.015971070252066</v>
+        <v>1.018007171422877</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018587400903522</v>
+        <v>1.037910593365402</v>
       </c>
       <c r="D5">
-        <v>1.036734259936946</v>
+        <v>1.046720968900327</v>
       </c>
       <c r="E5">
-        <v>1.025768196022151</v>
+        <v>1.041459789455829</v>
       </c>
       <c r="F5">
-        <v>1.041846927281004</v>
+        <v>1.05551931721606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050475882653499</v>
+        <v>1.041200743509382</v>
       </c>
       <c r="J5">
-        <v>1.037084591718278</v>
+        <v>1.042336253866908</v>
       </c>
       <c r="K5">
-        <v>1.046194655904272</v>
+        <v>1.049126928618031</v>
       </c>
       <c r="L5">
-        <v>1.035348198498488</v>
+        <v>1.043878547651768</v>
       </c>
       <c r="M5">
-        <v>1.051252613288186</v>
+        <v>1.057904180034992</v>
       </c>
       <c r="N5">
-        <v>1.016161483400042</v>
+        <v>1.018050832181955</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018759939213372</v>
+        <v>1.037948782176296</v>
       </c>
       <c r="D6">
-        <v>1.036866301859837</v>
+        <v>1.04675133616674</v>
       </c>
       <c r="E6">
-        <v>1.025919724817073</v>
+        <v>1.041495648546712</v>
       </c>
       <c r="F6">
-        <v>1.042001350341287</v>
+        <v>1.055555710698378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050525061262861</v>
+        <v>1.041209767444516</v>
       </c>
       <c r="J6">
-        <v>1.037178818905796</v>
+        <v>1.042358121683331</v>
       </c>
       <c r="K6">
-        <v>1.046289350659716</v>
+        <v>1.049148615897251</v>
       </c>
       <c r="L6">
-        <v>1.035461616924281</v>
+        <v>1.043905664625145</v>
       </c>
       <c r="M6">
-        <v>1.051369702610385</v>
+        <v>1.057931959545267</v>
       </c>
       <c r="N6">
-        <v>1.016193328893614</v>
+        <v>1.01805816249008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017570013817832</v>
+        <v>1.037686245270846</v>
       </c>
       <c r="D7">
-        <v>1.035955894241954</v>
+        <v>1.046542574891529</v>
       </c>
       <c r="E7">
-        <v>1.024875113809757</v>
+        <v>1.041249158090121</v>
       </c>
       <c r="F7">
-        <v>1.040936743296276</v>
+        <v>1.055305540156612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050185250413077</v>
+        <v>1.041147651272955</v>
       </c>
       <c r="J7">
-        <v>1.036528780118563</v>
+        <v>1.042207756723079</v>
       </c>
       <c r="K7">
-        <v>1.045636036018014</v>
+        <v>1.048999484252495</v>
       </c>
       <c r="L7">
-        <v>1.034679405172993</v>
+        <v>1.043719233059457</v>
       </c>
       <c r="M7">
-        <v>1.050562136890859</v>
+        <v>1.05774096676018</v>
       </c>
       <c r="N7">
-        <v>1.015973623017235</v>
+        <v>1.018007754854952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012506393982755</v>
+        <v>1.036590304720372</v>
       </c>
       <c r="D8">
-        <v>1.032087820675387</v>
+        <v>1.045671239634903</v>
       </c>
       <c r="E8">
-        <v>1.020440644437677</v>
+        <v>1.040220959603455</v>
       </c>
       <c r="F8">
-        <v>1.03641633035696</v>
+        <v>1.054261822891036</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048723161427952</v>
+        <v>1.040886379392688</v>
       </c>
       <c r="J8">
-        <v>1.033757929401383</v>
+        <v>1.041579321219586</v>
       </c>
       <c r="K8">
-        <v>1.042849999962083</v>
+        <v>1.048376002706641</v>
       </c>
       <c r="L8">
-        <v>1.031350673608406</v>
+        <v>1.042940734031008</v>
       </c>
       <c r="M8">
-        <v>1.047124618150722</v>
+        <v>1.056943266489945</v>
       </c>
       <c r="N8">
-        <v>1.015036734489661</v>
+        <v>1.017796986434323</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003221790400803</v>
+        <v>1.034664584035884</v>
       </c>
       <c r="D9">
-        <v>1.02502143497611</v>
+        <v>1.04414067808227</v>
       </c>
       <c r="E9">
-        <v>1.012352958599795</v>
+        <v>1.038417150873809</v>
       </c>
       <c r="F9">
-        <v>1.028168211959437</v>
+        <v>1.052430158988653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045982905489486</v>
+        <v>1.040419865317077</v>
       </c>
       <c r="J9">
-        <v>1.028661289675268</v>
+        <v>1.040472268823601</v>
       </c>
       <c r="K9">
-        <v>1.037721193907167</v>
+        <v>1.047276926618737</v>
       </c>
       <c r="L9">
-        <v>1.025248747254349</v>
+        <v>1.041571863703833</v>
       </c>
       <c r="M9">
-        <v>1.040820232370179</v>
+        <v>1.0555400548145</v>
       </c>
       <c r="N9">
-        <v>1.013312201005297</v>
+        <v>1.017425343022212</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9967657960780306</v>
+        <v>1.033384545539705</v>
       </c>
       <c r="D10">
-        <v>1.020128273283374</v>
+        <v>1.043123668111898</v>
       </c>
       <c r="E10">
-        <v>1.006760600465912</v>
+        <v>1.03722010897776</v>
       </c>
       <c r="F10">
-        <v>1.022462784897104</v>
+        <v>1.051214210053968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044039316384342</v>
+        <v>1.04010478572192</v>
       </c>
       <c r="J10">
-        <v>1.025108322965906</v>
+        <v>1.039734532908018</v>
       </c>
       <c r="K10">
-        <v>1.034143373169877</v>
+        <v>1.046544006258202</v>
       </c>
       <c r="L10">
-        <v>1.021008853701584</v>
+        <v>1.040661353903142</v>
       </c>
       <c r="M10">
-        <v>1.03643797482291</v>
+        <v>1.054606316447395</v>
       </c>
       <c r="N10">
-        <v>1.012109326680611</v>
+        <v>1.017177446289905</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.993901651804012</v>
+        <v>1.032831191225701</v>
       </c>
       <c r="D11">
-        <v>1.017962953495464</v>
+        <v>1.042684112537701</v>
       </c>
       <c r="E11">
-        <v>1.004287529975964</v>
+        <v>1.036703104376612</v>
       </c>
       <c r="F11">
-        <v>1.019939290242488</v>
+        <v>1.050688939725317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043168461356464</v>
+        <v>1.039967396727032</v>
       </c>
       <c r="J11">
-        <v>1.023530348407705</v>
+        <v>1.03941517214721</v>
       </c>
       <c r="K11">
-        <v>1.032553883334708</v>
+        <v>1.046226612568155</v>
       </c>
       <c r="L11">
-        <v>1.019129040200093</v>
+        <v>1.040267603362574</v>
       </c>
       <c r="M11">
-        <v>1.034494728667569</v>
+        <v>1.054202429675768</v>
       </c>
       <c r="N11">
-        <v>1.011574974989324</v>
+        <v>1.017070078418618</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9928269689578465</v>
+        <v>1.032625789324809</v>
       </c>
       <c r="D12">
-        <v>1.01715136506868</v>
+        <v>1.042520966554854</v>
       </c>
       <c r="E12">
-        <v>1.003360820613547</v>
+        <v>1.036511266469538</v>
       </c>
       <c r="F12">
-        <v>1.01899363000389</v>
+        <v>1.050494019804498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042840447398005</v>
+        <v>1.039916221232702</v>
       </c>
       <c r="J12">
-        <v>1.022938037639622</v>
+        <v>1.039296561222713</v>
       </c>
       <c r="K12">
-        <v>1.031957187264106</v>
+        <v>1.046108714635509</v>
       </c>
       <c r="L12">
-        <v>1.018423914616678</v>
+        <v>1.040121424483208</v>
       </c>
       <c r="M12">
-        <v>1.033765769784238</v>
+        <v>1.054052474118898</v>
       </c>
       <c r="N12">
-        <v>1.011374385075239</v>
+        <v>1.017030193648566</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9930579896581528</v>
+        <v>1.032669842433853</v>
       </c>
       <c r="D13">
-        <v>1.017325788512541</v>
+        <v>1.042555956256867</v>
       </c>
       <c r="E13">
-        <v>1.0035599754551</v>
+        <v>1.036552407242131</v>
       </c>
       <c r="F13">
-        <v>1.019196859893327</v>
+        <v>1.050535822209932</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042911015310576</v>
+        <v>1.039927205013798</v>
       </c>
       <c r="J13">
-        <v>1.023065374072119</v>
+        <v>1.039322003019637</v>
       </c>
       <c r="K13">
-        <v>1.032085469159175</v>
+        <v>1.046134004291444</v>
       </c>
       <c r="L13">
-        <v>1.01857548244751</v>
+        <v>1.040152776812444</v>
       </c>
       <c r="M13">
-        <v>1.033922462275971</v>
+        <v>1.054084637082875</v>
       </c>
       <c r="N13">
-        <v>1.011417509012109</v>
+        <v>1.017038749220512</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9938130417280324</v>
+        <v>1.032814209804741</v>
       </c>
       <c r="D14">
-        <v>1.017896017888761</v>
+        <v>1.042670624288736</v>
       </c>
       <c r="E14">
-        <v>1.004211095281784</v>
+        <v>1.036687242891536</v>
       </c>
       <c r="F14">
-        <v>1.019861293578887</v>
+        <v>1.050672823719277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043141441079623</v>
+        <v>1.039963169459694</v>
       </c>
       <c r="J14">
-        <v>1.023481515359515</v>
+        <v>1.039405367440502</v>
       </c>
       <c r="K14">
-        <v>1.03250468996814</v>
+        <v>1.046216867157509</v>
       </c>
       <c r="L14">
-        <v>1.019070896318334</v>
+        <v>1.040255518578757</v>
       </c>
       <c r="M14">
-        <v>1.034434620275093</v>
+        <v>1.054190032947251</v>
       </c>
       <c r="N14">
-        <v>1.011558437642688</v>
+        <v>1.017066781600935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942768061456433</v>
+        <v>1.032903177713834</v>
       </c>
       <c r="D15">
-        <v>1.018246379516768</v>
+        <v>1.042741291604717</v>
       </c>
       <c r="E15">
-        <v>1.004611187233503</v>
+        <v>1.036770346227573</v>
       </c>
       <c r="F15">
-        <v>1.020269559311764</v>
+        <v>1.050757259958285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043282808058837</v>
+        <v>1.039985309401293</v>
       </c>
       <c r="J15">
-        <v>1.023737087202221</v>
+        <v>1.039456732889845</v>
       </c>
       <c r="K15">
-        <v>1.032762145054336</v>
+        <v>1.046267921243789</v>
       </c>
       <c r="L15">
-        <v>1.019375216899391</v>
+        <v>1.04031883150144</v>
       </c>
       <c r="M15">
-        <v>1.034749221390308</v>
+        <v>1.054254979609402</v>
       </c>
       <c r="N15">
-        <v>1.011644986641072</v>
+        <v>1.017084052818243</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9969543916053445</v>
+        <v>1.033421289176963</v>
       </c>
       <c r="D16">
-        <v>1.020270972565894</v>
+        <v>1.043152857328752</v>
       </c>
       <c r="E16">
-        <v>1.006923614029089</v>
+        <v>1.037254448898294</v>
       </c>
       <c r="F16">
-        <v>1.022629113995508</v>
+        <v>1.051249096890134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044096483546565</v>
+        <v>1.04011388366791</v>
       </c>
       <c r="J16">
-        <v>1.025212194873208</v>
+        <v>1.039755729705391</v>
       </c>
       <c r="K16">
-        <v>1.034247993867431</v>
+        <v>1.046565070025976</v>
       </c>
       <c r="L16">
-        <v>1.021132661860998</v>
+        <v>1.04068749662738</v>
       </c>
       <c r="M16">
-        <v>1.03656595487375</v>
+        <v>1.054633130243209</v>
       </c>
       <c r="N16">
-        <v>1.012144498722139</v>
+        <v>1.017184571415668</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9986152469832997</v>
+        <v>1.033746531850018</v>
       </c>
       <c r="D17">
-        <v>1.021528278064313</v>
+        <v>1.043411241539477</v>
       </c>
       <c r="E17">
-        <v>1.008360092868284</v>
+        <v>1.037558469137878</v>
       </c>
       <c r="F17">
-        <v>1.024094762015278</v>
+        <v>1.051557947581026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044598946759308</v>
+        <v>1.040194279094643</v>
       </c>
       <c r="J17">
-        <v>1.026126743410286</v>
+        <v>1.039943305848971</v>
       </c>
       <c r="K17">
-        <v>1.035169081864661</v>
+        <v>1.046751455383616</v>
       </c>
       <c r="L17">
-        <v>1.022223110169993</v>
+        <v>1.040918887142609</v>
       </c>
       <c r="M17">
-        <v>1.037693112498369</v>
+        <v>1.054870449929168</v>
       </c>
       <c r="N17">
-        <v>1.012454160422036</v>
+        <v>1.017247617204587</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9995774065952179</v>
+        <v>1.033936328164049</v>
       </c>
       <c r="D18">
-        <v>1.022257172866739</v>
+        <v>1.043562031329046</v>
       </c>
       <c r="E18">
-        <v>1.009193018710984</v>
+        <v>1.037735926466139</v>
       </c>
       <c r="F18">
-        <v>1.024944560502103</v>
+        <v>1.051738214815243</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044889211141444</v>
+        <v>1.040241079956875</v>
       </c>
       <c r="J18">
-        <v>1.026656388511968</v>
+        <v>1.040052723834443</v>
       </c>
       <c r="K18">
-        <v>1.035702468267755</v>
+        <v>1.046860167404068</v>
       </c>
       <c r="L18">
-        <v>1.022854933244751</v>
+        <v>1.041053902053402</v>
       </c>
       <c r="M18">
-        <v>1.038346175168228</v>
+        <v>1.055008915681561</v>
       </c>
       <c r="N18">
-        <v>1.012633484004406</v>
+        <v>1.01728438811366</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9999043751376295</v>
+        <v>1.034001058637496</v>
       </c>
       <c r="D19">
-        <v>1.02250495773752</v>
+        <v>1.043613460034319</v>
       </c>
       <c r="E19">
-        <v>1.009476196161302</v>
+        <v>1.03779645639061</v>
       </c>
       <c r="F19">
-        <v>1.025233467164693</v>
+        <v>1.051799701550651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044987710698693</v>
+        <v>1.040257022141185</v>
       </c>
       <c r="J19">
-        <v>1.026836347185145</v>
+        <v>1.0400900338564</v>
       </c>
       <c r="K19">
-        <v>1.035883690086806</v>
+        <v>1.046897234774266</v>
       </c>
       <c r="L19">
-        <v>1.02306966161521</v>
+        <v>1.041099946868538</v>
       </c>
       <c r="M19">
-        <v>1.038568116551428</v>
+        <v>1.055056135861824</v>
       </c>
       <c r="N19">
-        <v>1.012694411092673</v>
+        <v>1.017296925581997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984377379762144</v>
+        <v>1.033711627299064</v>
       </c>
       <c r="D20">
-        <v>1.021393845567513</v>
+        <v>1.043383511210296</v>
       </c>
       <c r="E20">
-        <v>1.008206486593055</v>
+        <v>1.037525837444979</v>
       </c>
       <c r="F20">
-        <v>1.023938040780846</v>
+        <v>1.05152479841336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04454532927132</v>
+        <v>1.040185662981332</v>
       </c>
       <c r="J20">
-        <v>1.026029015321287</v>
+        <v>1.039923179867703</v>
       </c>
       <c r="K20">
-        <v>1.035070659674011</v>
+        <v>1.046731458340983</v>
       </c>
       <c r="L20">
-        <v>1.022106553555169</v>
+        <v>1.040894056077791</v>
       </c>
       <c r="M20">
-        <v>1.037572635167401</v>
+        <v>1.054844983499935</v>
       </c>
       <c r="N20">
-        <v>1.012421071353669</v>
+        <v>1.017240853256921</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9935910003223761</v>
+        <v>1.032771693374581</v>
       </c>
       <c r="D21">
-        <v>1.017728303335252</v>
+        <v>1.042636853958802</v>
       </c>
       <c r="E21">
-        <v>1.004019583314349</v>
+        <v>1.036647531599766</v>
       </c>
       <c r="F21">
-        <v>1.019665867123014</v>
+        <v>1.050632474959477</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043073712934778</v>
+        <v>1.039952582771182</v>
       </c>
       <c r="J21">
-        <v>1.023359144770261</v>
+        <v>1.039380818302735</v>
       </c>
       <c r="K21">
-        <v>1.032381415474666</v>
+        <v>1.046192466202178</v>
       </c>
       <c r="L21">
-        <v>1.018925201524101</v>
+        <v>1.040225261534668</v>
       </c>
       <c r="M21">
-        <v>1.034284002273184</v>
+        <v>1.054158994657637</v>
       </c>
       <c r="N21">
-        <v>1.011516996526094</v>
+        <v>1.017058526858012</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9904808402897793</v>
+        <v>1.032181521939218</v>
       </c>
       <c r="D22">
-        <v>1.015381280542188</v>
+        <v>1.042168122316547</v>
       </c>
       <c r="E22">
-        <v>1.001340050276084</v>
+        <v>1.036096467548631</v>
       </c>
       <c r="F22">
-        <v>1.016931441602425</v>
+        <v>1.050072529519137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042122107884507</v>
+        <v>1.039805208403042</v>
       </c>
       <c r="J22">
-        <v>1.021644600151542</v>
+        <v>1.039039895018134</v>
       </c>
       <c r="K22">
-        <v>1.030654067810286</v>
+        <v>1.045853559238437</v>
       </c>
       <c r="L22">
-        <v>1.016885007169153</v>
+        <v>1.039805213616603</v>
       </c>
       <c r="M22">
-        <v>1.032174783411308</v>
+        <v>1.053728068765673</v>
       </c>
       <c r="N22">
-        <v>1.010936330196683</v>
+        <v>1.01694387064609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9921357237682955</v>
+        <v>1.032494306366085</v>
       </c>
       <c r="D23">
-        <v>1.016629600274201</v>
+        <v>1.042416536825271</v>
       </c>
       <c r="E23">
-        <v>1.002765106804884</v>
+        <v>1.036388486265836</v>
       </c>
       <c r="F23">
-        <v>1.018385719282435</v>
+        <v>1.05036926283996</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042629118311648</v>
+        <v>1.039883412541632</v>
       </c>
       <c r="J23">
-        <v>1.022556999866564</v>
+        <v>1.039220616794425</v>
       </c>
       <c r="K23">
-        <v>1.031573311786366</v>
+        <v>1.046033221783939</v>
       </c>
       <c r="L23">
-        <v>1.017970438157479</v>
+        <v>1.040027845816079</v>
       </c>
       <c r="M23">
-        <v>1.033296955656646</v>
+        <v>1.05395647392307</v>
       </c>
       <c r="N23">
-        <v>1.011245340347382</v>
+        <v>1.017004653841582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9985179669826456</v>
+        <v>1.03372739889222</v>
       </c>
       <c r="D24">
-        <v>1.021454603619415</v>
+        <v>1.043396041109643</v>
       </c>
       <c r="E24">
-        <v>1.008275909922244</v>
+        <v>1.03754058190879</v>
       </c>
       <c r="F24">
-        <v>1.024008872062463</v>
+        <v>1.051539776725285</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044569565391793</v>
+        <v>1.040189556517748</v>
       </c>
       <c r="J24">
-        <v>1.026073186150133</v>
+        <v>1.039932273907789</v>
       </c>
       <c r="K24">
-        <v>1.035115144363679</v>
+        <v>1.046740494154484</v>
       </c>
       <c r="L24">
-        <v>1.022159233483916</v>
+        <v>1.040905276016749</v>
       </c>
       <c r="M24">
-        <v>1.037627087231375</v>
+        <v>1.054856490556045</v>
       </c>
       <c r="N24">
-        <v>1.012436026881325</v>
+        <v>1.017243909601918</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005667252117839</v>
+        <v>1.035161770896792</v>
       </c>
       <c r="D25">
-        <v>1.02687932118844</v>
+        <v>1.044535779877572</v>
       </c>
       <c r="E25">
-        <v>1.014477898909366</v>
+        <v>1.038882518002286</v>
       </c>
       <c r="F25">
-        <v>1.030335700628632</v>
+        <v>1.052902787124777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046711401540351</v>
+        <v>1.040541191041227</v>
       </c>
       <c r="J25">
-        <v>1.030005384366015</v>
+        <v>1.040758421289438</v>
       </c>
       <c r="K25">
-        <v>1.039074222989602</v>
+        <v>1.047561105819007</v>
       </c>
       <c r="L25">
-        <v>1.026855545870415</v>
+        <v>1.041925391215762</v>
       </c>
       <c r="M25">
-        <v>1.04248066286839</v>
+        <v>1.055902519761575</v>
       </c>
       <c r="N25">
-        <v>1.013767125743889</v>
+        <v>1.017521447544976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036308532144776</v>
+        <v>1.0111790544077</v>
       </c>
       <c r="D2">
-        <v>1.045447246956343</v>
+        <v>1.031075517145059</v>
       </c>
       <c r="E2">
-        <v>1.039956798640218</v>
+        <v>1.019281045074758</v>
       </c>
       <c r="F2">
-        <v>1.053993632004908</v>
+        <v>1.035233998188951</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040818700314365</v>
+        <v>1.048335867695424</v>
       </c>
       <c r="J2">
-        <v>1.04141755587214</v>
+        <v>1.033030466682919</v>
       </c>
       <c r="K2">
-        <v>1.048215461422746</v>
+        <v>1.04211825309601</v>
       </c>
       <c r="L2">
-        <v>1.042740513027197</v>
+        <v>1.030478143822596</v>
       </c>
       <c r="M2">
-        <v>1.056738067710037</v>
+        <v>1.046223357250277</v>
       </c>
       <c r="N2">
-        <v>1.017742708499226</v>
+        <v>1.014790673669026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03714272496299</v>
+        <v>1.015078318710764</v>
       </c>
       <c r="D3">
-        <v>1.046110420238542</v>
+        <v>1.034051264420055</v>
       </c>
       <c r="E3">
-        <v>1.040739082067003</v>
+        <v>1.022690854342644</v>
       </c>
       <c r="F3">
-        <v>1.054787798995624</v>
+        <v>1.038710356299466</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041018470270297</v>
+        <v>1.049468936566391</v>
       </c>
       <c r="J3">
-        <v>1.041896240001939</v>
+        <v>1.035166206227421</v>
       </c>
       <c r="K3">
-        <v>1.048690463194736</v>
+        <v>1.044266230448005</v>
       </c>
       <c r="L3">
-        <v>1.043333195163638</v>
+        <v>1.033041405617511</v>
       </c>
       <c r="M3">
-        <v>1.057345438288602</v>
+        <v>1.048870777238724</v>
       </c>
       <c r="N3">
-        <v>1.017903295395854</v>
+        <v>1.015512976494292</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037683207584575</v>
+        <v>1.017556193984275</v>
       </c>
       <c r="D4">
-        <v>1.046540159482722</v>
+        <v>1.035945323914467</v>
       </c>
       <c r="E4">
-        <v>1.041246306483762</v>
+        <v>1.024862987419416</v>
       </c>
       <c r="F4">
-        <v>1.055302645883748</v>
+        <v>1.040924384190663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041146931474414</v>
+        <v>1.050181295036029</v>
       </c>
       <c r="J4">
-        <v>1.042206016512295</v>
+        <v>1.036521227931111</v>
       </c>
       <c r="K4">
-        <v>1.048997758204943</v>
+        <v>1.045628445089445</v>
       </c>
       <c r="L4">
-        <v>1.043717075810325</v>
+        <v>1.034670320396958</v>
       </c>
       <c r="M4">
-        <v>1.057738756647028</v>
+        <v>1.050552757147664</v>
       </c>
       <c r="N4">
-        <v>1.018007171422877</v>
+        <v>1.015971070252065</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037910593365402</v>
+        <v>1.018587400903522</v>
       </c>
       <c r="D5">
-        <v>1.046720968900327</v>
+        <v>1.036734259936945</v>
       </c>
       <c r="E5">
-        <v>1.041459789455829</v>
+        <v>1.02576819602215</v>
       </c>
       <c r="F5">
-        <v>1.05551931721606</v>
+        <v>1.041846927281004</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041200743509382</v>
+        <v>1.050475882653499</v>
       </c>
       <c r="J5">
-        <v>1.042336253866908</v>
+        <v>1.037084591718277</v>
       </c>
       <c r="K5">
-        <v>1.049126928618031</v>
+        <v>1.046194655904272</v>
       </c>
       <c r="L5">
-        <v>1.043878547651768</v>
+        <v>1.035348198498488</v>
       </c>
       <c r="M5">
-        <v>1.057904180034992</v>
+        <v>1.051252613288185</v>
       </c>
       <c r="N5">
-        <v>1.018050832181955</v>
+        <v>1.016161483400042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037948782176296</v>
+        <v>1.018759939213372</v>
       </c>
       <c r="D6">
-        <v>1.04675133616674</v>
+        <v>1.036866301859837</v>
       </c>
       <c r="E6">
-        <v>1.041495648546712</v>
+        <v>1.025919724817073</v>
       </c>
       <c r="F6">
-        <v>1.055555710698378</v>
+        <v>1.042001350341287</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041209767444516</v>
+        <v>1.050525061262861</v>
       </c>
       <c r="J6">
-        <v>1.042358121683331</v>
+        <v>1.037178818905797</v>
       </c>
       <c r="K6">
-        <v>1.049148615897251</v>
+        <v>1.046289350659716</v>
       </c>
       <c r="L6">
-        <v>1.043905664625145</v>
+        <v>1.035461616924281</v>
       </c>
       <c r="M6">
-        <v>1.057931959545267</v>
+        <v>1.051369702610385</v>
       </c>
       <c r="N6">
-        <v>1.01805816249008</v>
+        <v>1.016193328893614</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037686245270846</v>
+        <v>1.017570013817832</v>
       </c>
       <c r="D7">
-        <v>1.046542574891529</v>
+        <v>1.035955894241954</v>
       </c>
       <c r="E7">
-        <v>1.041249158090121</v>
+        <v>1.024875113809757</v>
       </c>
       <c r="F7">
-        <v>1.055305540156612</v>
+        <v>1.040936743296277</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041147651272955</v>
+        <v>1.050185250413078</v>
       </c>
       <c r="J7">
-        <v>1.042207756723079</v>
+        <v>1.036528780118563</v>
       </c>
       <c r="K7">
-        <v>1.048999484252495</v>
+        <v>1.045636036018014</v>
       </c>
       <c r="L7">
-        <v>1.043719233059457</v>
+        <v>1.034679405172992</v>
       </c>
       <c r="M7">
-        <v>1.05774096676018</v>
+        <v>1.05056213689086</v>
       </c>
       <c r="N7">
-        <v>1.018007754854952</v>
+        <v>1.015973623017235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036590304720372</v>
+        <v>1.012506393982756</v>
       </c>
       <c r="D8">
-        <v>1.045671239634903</v>
+        <v>1.032087820675387</v>
       </c>
       <c r="E8">
-        <v>1.040220959603455</v>
+        <v>1.020440644437677</v>
       </c>
       <c r="F8">
-        <v>1.054261822891036</v>
+        <v>1.036416330356959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040886379392688</v>
+        <v>1.048723161427952</v>
       </c>
       <c r="J8">
-        <v>1.041579321219586</v>
+        <v>1.033757929401383</v>
       </c>
       <c r="K8">
-        <v>1.048376002706641</v>
+        <v>1.042849999962083</v>
       </c>
       <c r="L8">
-        <v>1.042940734031008</v>
+        <v>1.031350673608406</v>
       </c>
       <c r="M8">
-        <v>1.056943266489945</v>
+        <v>1.047124618150722</v>
       </c>
       <c r="N8">
-        <v>1.017796986434323</v>
+        <v>1.015036734489661</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034664584035884</v>
+        <v>1.003221790400803</v>
       </c>
       <c r="D9">
-        <v>1.04414067808227</v>
+        <v>1.02502143497611</v>
       </c>
       <c r="E9">
-        <v>1.038417150873809</v>
+        <v>1.012352958599795</v>
       </c>
       <c r="F9">
-        <v>1.052430158988653</v>
+        <v>1.028168211959437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040419865317077</v>
+        <v>1.045982905489486</v>
       </c>
       <c r="J9">
-        <v>1.040472268823601</v>
+        <v>1.028661289675268</v>
       </c>
       <c r="K9">
-        <v>1.047276926618737</v>
+        <v>1.037721193907167</v>
       </c>
       <c r="L9">
-        <v>1.041571863703833</v>
+        <v>1.025248747254349</v>
       </c>
       <c r="M9">
-        <v>1.0555400548145</v>
+        <v>1.040820232370179</v>
       </c>
       <c r="N9">
-        <v>1.017425343022212</v>
+        <v>1.013312201005297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033384545539705</v>
+        <v>0.996765796078031</v>
       </c>
       <c r="D10">
-        <v>1.043123668111898</v>
+        <v>1.020128273283374</v>
       </c>
       <c r="E10">
-        <v>1.03722010897776</v>
+        <v>1.006760600465912</v>
       </c>
       <c r="F10">
-        <v>1.051214210053968</v>
+        <v>1.022462784897104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04010478572192</v>
+        <v>1.044039316384342</v>
       </c>
       <c r="J10">
-        <v>1.039734532908018</v>
+        <v>1.025108322965906</v>
       </c>
       <c r="K10">
-        <v>1.046544006258202</v>
+        <v>1.034143373169878</v>
       </c>
       <c r="L10">
-        <v>1.040661353903142</v>
+        <v>1.021008853701584</v>
       </c>
       <c r="M10">
-        <v>1.054606316447395</v>
+        <v>1.03643797482291</v>
       </c>
       <c r="N10">
-        <v>1.017177446289905</v>
+        <v>1.012109326680611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032831191225701</v>
+        <v>0.9939016518040111</v>
       </c>
       <c r="D11">
-        <v>1.042684112537701</v>
+        <v>1.017962953495463</v>
       </c>
       <c r="E11">
-        <v>1.036703104376612</v>
+        <v>1.004287529975963</v>
       </c>
       <c r="F11">
-        <v>1.050688939725317</v>
+        <v>1.019939290242486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039967396727032</v>
+        <v>1.043168461356464</v>
       </c>
       <c r="J11">
-        <v>1.03941517214721</v>
+        <v>1.023530348407704</v>
       </c>
       <c r="K11">
-        <v>1.046226612568155</v>
+        <v>1.032553883334707</v>
       </c>
       <c r="L11">
-        <v>1.040267603362574</v>
+        <v>1.019129040200092</v>
       </c>
       <c r="M11">
-        <v>1.054202429675768</v>
+        <v>1.034494728667568</v>
       </c>
       <c r="N11">
-        <v>1.017070078418618</v>
+        <v>1.011574974989324</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032625789324809</v>
+        <v>0.9928269689578459</v>
       </c>
       <c r="D12">
-        <v>1.042520966554854</v>
+        <v>1.01715136506868</v>
       </c>
       <c r="E12">
-        <v>1.036511266469538</v>
+        <v>1.003360820613546</v>
       </c>
       <c r="F12">
-        <v>1.050494019804498</v>
+        <v>1.018993630003889</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039916221232702</v>
+        <v>1.042840447398004</v>
       </c>
       <c r="J12">
-        <v>1.039296561222713</v>
+        <v>1.022938037639621</v>
       </c>
       <c r="K12">
-        <v>1.046108714635509</v>
+        <v>1.031957187264106</v>
       </c>
       <c r="L12">
-        <v>1.040121424483208</v>
+        <v>1.018423914616678</v>
       </c>
       <c r="M12">
-        <v>1.054052474118898</v>
+        <v>1.033765769784238</v>
       </c>
       <c r="N12">
-        <v>1.017030193648566</v>
+        <v>1.011374385075239</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032669842433853</v>
+        <v>0.9930579896581526</v>
       </c>
       <c r="D13">
-        <v>1.042555956256867</v>
+        <v>1.01732578851254</v>
       </c>
       <c r="E13">
-        <v>1.036552407242131</v>
+        <v>1.0035599754551</v>
       </c>
       <c r="F13">
-        <v>1.050535822209932</v>
+        <v>1.019196859893327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039927205013798</v>
+        <v>1.042911015310576</v>
       </c>
       <c r="J13">
-        <v>1.039322003019637</v>
+        <v>1.023065374072119</v>
       </c>
       <c r="K13">
-        <v>1.046134004291444</v>
+        <v>1.032085469159175</v>
       </c>
       <c r="L13">
-        <v>1.040152776812444</v>
+        <v>1.01857548244751</v>
       </c>
       <c r="M13">
-        <v>1.054084637082875</v>
+        <v>1.033922462275971</v>
       </c>
       <c r="N13">
-        <v>1.017038749220512</v>
+        <v>1.011417509012109</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032814209804741</v>
+        <v>0.9938130417280322</v>
       </c>
       <c r="D14">
-        <v>1.042670624288736</v>
+        <v>1.017896017888761</v>
       </c>
       <c r="E14">
-        <v>1.036687242891536</v>
+        <v>1.004211095281784</v>
       </c>
       <c r="F14">
-        <v>1.050672823719277</v>
+        <v>1.019861293578887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039963169459694</v>
+        <v>1.043141441079623</v>
       </c>
       <c r="J14">
-        <v>1.039405367440502</v>
+        <v>1.023481515359515</v>
       </c>
       <c r="K14">
-        <v>1.046216867157509</v>
+        <v>1.03250468996814</v>
       </c>
       <c r="L14">
-        <v>1.040255518578757</v>
+        <v>1.019070896318334</v>
       </c>
       <c r="M14">
-        <v>1.054190032947251</v>
+        <v>1.034434620275093</v>
       </c>
       <c r="N14">
-        <v>1.017066781600935</v>
+        <v>1.011558437642688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032903177713834</v>
+        <v>0.9942768061456434</v>
       </c>
       <c r="D15">
-        <v>1.042741291604717</v>
+        <v>1.018246379516768</v>
       </c>
       <c r="E15">
-        <v>1.036770346227573</v>
+        <v>1.004611187233503</v>
       </c>
       <c r="F15">
-        <v>1.050757259958285</v>
+        <v>1.020269559311764</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039985309401293</v>
+        <v>1.043282808058837</v>
       </c>
       <c r="J15">
-        <v>1.039456732889845</v>
+        <v>1.023737087202221</v>
       </c>
       <c r="K15">
-        <v>1.046267921243789</v>
+        <v>1.032762145054336</v>
       </c>
       <c r="L15">
-        <v>1.04031883150144</v>
+        <v>1.019375216899391</v>
       </c>
       <c r="M15">
-        <v>1.054254979609402</v>
+        <v>1.034749221390308</v>
       </c>
       <c r="N15">
-        <v>1.017084052818243</v>
+        <v>1.011644986641072</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033421289176963</v>
+        <v>0.9969543916053437</v>
       </c>
       <c r="D16">
-        <v>1.043152857328752</v>
+        <v>1.020270972565893</v>
       </c>
       <c r="E16">
-        <v>1.037254448898294</v>
+        <v>1.006923614029088</v>
       </c>
       <c r="F16">
-        <v>1.051249096890134</v>
+        <v>1.022629113995506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04011388366791</v>
+        <v>1.044096483546564</v>
       </c>
       <c r="J16">
-        <v>1.039755729705391</v>
+        <v>1.025212194873208</v>
       </c>
       <c r="K16">
-        <v>1.046565070025976</v>
+        <v>1.03424799386743</v>
       </c>
       <c r="L16">
-        <v>1.04068749662738</v>
+        <v>1.021132661860997</v>
       </c>
       <c r="M16">
-        <v>1.054633130243209</v>
+        <v>1.036565954873749</v>
       </c>
       <c r="N16">
-        <v>1.017184571415668</v>
+        <v>1.012144498722139</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033746531850018</v>
+        <v>0.9986152469832993</v>
       </c>
       <c r="D17">
-        <v>1.043411241539477</v>
+        <v>1.021528278064313</v>
       </c>
       <c r="E17">
-        <v>1.037558469137878</v>
+        <v>1.008360092868283</v>
       </c>
       <c r="F17">
-        <v>1.051557947581026</v>
+        <v>1.024094762015278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040194279094643</v>
+        <v>1.044598946759308</v>
       </c>
       <c r="J17">
-        <v>1.039943305848971</v>
+        <v>1.026126743410285</v>
       </c>
       <c r="K17">
-        <v>1.046751455383616</v>
+        <v>1.03516908186466</v>
       </c>
       <c r="L17">
-        <v>1.040918887142609</v>
+        <v>1.022223110169993</v>
       </c>
       <c r="M17">
-        <v>1.054870449929168</v>
+        <v>1.037693112498369</v>
       </c>
       <c r="N17">
-        <v>1.017247617204587</v>
+        <v>1.012454160422036</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033936328164049</v>
+        <v>0.9995774065952169</v>
       </c>
       <c r="D18">
-        <v>1.043562031329046</v>
+        <v>1.022257172866738</v>
       </c>
       <c r="E18">
-        <v>1.037735926466139</v>
+        <v>1.009193018710983</v>
       </c>
       <c r="F18">
-        <v>1.051738214815243</v>
+        <v>1.024944560502102</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040241079956875</v>
+        <v>1.044889211141444</v>
       </c>
       <c r="J18">
-        <v>1.040052723834443</v>
+        <v>1.026656388511967</v>
       </c>
       <c r="K18">
-        <v>1.046860167404068</v>
+        <v>1.035702468267753</v>
       </c>
       <c r="L18">
-        <v>1.041053902053402</v>
+        <v>1.02285493324475</v>
       </c>
       <c r="M18">
-        <v>1.055008915681561</v>
+        <v>1.038346175168227</v>
       </c>
       <c r="N18">
-        <v>1.01728438811366</v>
+        <v>1.012633484004405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034001058637496</v>
+        <v>0.9999043751376302</v>
       </c>
       <c r="D19">
-        <v>1.043613460034319</v>
+        <v>1.022504957737521</v>
       </c>
       <c r="E19">
-        <v>1.03779645639061</v>
+        <v>1.009476196161302</v>
       </c>
       <c r="F19">
-        <v>1.051799701550651</v>
+        <v>1.025233467164694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040257022141185</v>
+        <v>1.044987710698693</v>
       </c>
       <c r="J19">
-        <v>1.0400900338564</v>
+        <v>1.026836347185145</v>
       </c>
       <c r="K19">
-        <v>1.046897234774266</v>
+        <v>1.035883690086806</v>
       </c>
       <c r="L19">
-        <v>1.041099946868538</v>
+        <v>1.02306966161521</v>
       </c>
       <c r="M19">
-        <v>1.055056135861824</v>
+        <v>1.038568116551429</v>
       </c>
       <c r="N19">
-        <v>1.017296925581997</v>
+        <v>1.012694411092673</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033711627299064</v>
+        <v>0.9984377379762142</v>
       </c>
       <c r="D20">
-        <v>1.043383511210296</v>
+        <v>1.021393845567513</v>
       </c>
       <c r="E20">
-        <v>1.037525837444979</v>
+        <v>1.008206486593055</v>
       </c>
       <c r="F20">
-        <v>1.05152479841336</v>
+        <v>1.023938040780846</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040185662981332</v>
+        <v>1.04454532927132</v>
       </c>
       <c r="J20">
-        <v>1.039923179867703</v>
+        <v>1.026029015321286</v>
       </c>
       <c r="K20">
-        <v>1.046731458340983</v>
+        <v>1.03507065967401</v>
       </c>
       <c r="L20">
-        <v>1.040894056077791</v>
+        <v>1.022106553555168</v>
       </c>
       <c r="M20">
-        <v>1.054844983499935</v>
+        <v>1.037572635167401</v>
       </c>
       <c r="N20">
-        <v>1.017240853256921</v>
+        <v>1.012421071353669</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032771693374581</v>
+        <v>0.9935910003223765</v>
       </c>
       <c r="D21">
-        <v>1.042636853958802</v>
+        <v>1.017728303335252</v>
       </c>
       <c r="E21">
-        <v>1.036647531599766</v>
+        <v>1.004019583314349</v>
       </c>
       <c r="F21">
-        <v>1.050632474959477</v>
+        <v>1.019665867123014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039952582771182</v>
+        <v>1.043073712934778</v>
       </c>
       <c r="J21">
-        <v>1.039380818302735</v>
+        <v>1.023359144770261</v>
       </c>
       <c r="K21">
-        <v>1.046192466202178</v>
+        <v>1.032381415474666</v>
       </c>
       <c r="L21">
-        <v>1.040225261534668</v>
+        <v>1.018925201524101</v>
       </c>
       <c r="M21">
-        <v>1.054158994657637</v>
+        <v>1.034284002273184</v>
       </c>
       <c r="N21">
-        <v>1.017058526858012</v>
+        <v>1.011516996526094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032181521939218</v>
+        <v>0.9904808402897798</v>
       </c>
       <c r="D22">
-        <v>1.042168122316547</v>
+        <v>1.015381280542189</v>
       </c>
       <c r="E22">
-        <v>1.036096467548631</v>
+        <v>1.001340050276085</v>
       </c>
       <c r="F22">
-        <v>1.050072529519137</v>
+        <v>1.016931441602425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039805208403042</v>
+        <v>1.042122107884508</v>
       </c>
       <c r="J22">
-        <v>1.039039895018134</v>
+        <v>1.021644600151542</v>
       </c>
       <c r="K22">
-        <v>1.045853559238437</v>
+        <v>1.030654067810287</v>
       </c>
       <c r="L22">
-        <v>1.039805213616603</v>
+        <v>1.016885007169153</v>
       </c>
       <c r="M22">
-        <v>1.053728068765673</v>
+        <v>1.032174783411308</v>
       </c>
       <c r="N22">
-        <v>1.01694387064609</v>
+        <v>1.010936330196683</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032494306366085</v>
+        <v>0.9921357237682946</v>
       </c>
       <c r="D23">
-        <v>1.042416536825271</v>
+        <v>1.0166296002742</v>
       </c>
       <c r="E23">
-        <v>1.036388486265836</v>
+        <v>1.002765106804883</v>
       </c>
       <c r="F23">
-        <v>1.05036926283996</v>
+        <v>1.018385719282434</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039883412541632</v>
+        <v>1.042629118311647</v>
       </c>
       <c r="J23">
-        <v>1.039220616794425</v>
+        <v>1.022556999866563</v>
       </c>
       <c r="K23">
-        <v>1.046033221783939</v>
+        <v>1.031573311786365</v>
       </c>
       <c r="L23">
-        <v>1.040027845816079</v>
+        <v>1.017970438157479</v>
       </c>
       <c r="M23">
-        <v>1.05395647392307</v>
+        <v>1.033296955656646</v>
       </c>
       <c r="N23">
-        <v>1.017004653841582</v>
+        <v>1.011245340347382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03372739889222</v>
+        <v>0.9985179669826454</v>
       </c>
       <c r="D24">
-        <v>1.043396041109643</v>
+        <v>1.021454603619415</v>
       </c>
       <c r="E24">
-        <v>1.03754058190879</v>
+        <v>1.008275909922244</v>
       </c>
       <c r="F24">
-        <v>1.051539776725285</v>
+        <v>1.024008872062463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040189556517748</v>
+        <v>1.044569565391794</v>
       </c>
       <c r="J24">
-        <v>1.039932273907789</v>
+        <v>1.026073186150133</v>
       </c>
       <c r="K24">
-        <v>1.046740494154484</v>
+        <v>1.035115144363679</v>
       </c>
       <c r="L24">
-        <v>1.040905276016749</v>
+        <v>1.022159233483916</v>
       </c>
       <c r="M24">
-        <v>1.054856490556045</v>
+        <v>1.037627087231374</v>
       </c>
       <c r="N24">
-        <v>1.017243909601918</v>
+        <v>1.012436026881325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035161770896792</v>
+        <v>1.005667252117838</v>
       </c>
       <c r="D25">
-        <v>1.044535779877572</v>
+        <v>1.02687932118844</v>
       </c>
       <c r="E25">
-        <v>1.038882518002286</v>
+        <v>1.014477898909366</v>
       </c>
       <c r="F25">
-        <v>1.052902787124777</v>
+        <v>1.030335700628632</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040541191041227</v>
+        <v>1.046711401540351</v>
       </c>
       <c r="J25">
-        <v>1.040758421289438</v>
+        <v>1.030005384366015</v>
       </c>
       <c r="K25">
-        <v>1.047561105819007</v>
+        <v>1.039074222989601</v>
       </c>
       <c r="L25">
-        <v>1.041925391215762</v>
+        <v>1.026855545870415</v>
       </c>
       <c r="M25">
-        <v>1.055902519761575</v>
+        <v>1.042480662868389</v>
       </c>
       <c r="N25">
-        <v>1.017521447544976</v>
+        <v>1.013767125743889</v>
       </c>
     </row>
   </sheetData>
